--- a/data/trans_orig/P70A_2023-Habitat-trans_orig.xlsx
+++ b/data/trans_orig/P70A_2023-Habitat-trans_orig.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27231"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27328"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{38B15FB8-9F59-4C2F-8537-E1D93A242744}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{6E4579A1-FCA6-488B-9698-645C9492BC95}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1536" yWindow="1536" windowWidth="17280" windowHeight="8880" xr2:uid="{AB4401FC-AF97-4308-A77E-C38585431B1B}"/>
+    <workbookView xWindow="1536" yWindow="1536" windowWidth="17280" windowHeight="8880" xr2:uid="{8AECA27B-46EC-4378-8D20-3DEF3974859A}"/>
   </bookViews>
   <sheets>
     <sheet name="2023" sheetId="2" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="266" uniqueCount="179">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="266" uniqueCount="177">
   <si>
     <t>Población según si dichos problemas de salud fueron causados por su trabajo en 2023 (Tasa respuesta: 10,41%)</t>
   </si>
@@ -74,28 +74,28 @@
     <t>73,65%</t>
   </si>
   <si>
-    <t>44,19%</t>
-  </si>
-  <si>
-    <t>94,07%</t>
+    <t>40,21%</t>
+  </si>
+  <si>
+    <t>93,87%</t>
   </si>
   <si>
     <t>80,77%</t>
   </si>
   <si>
-    <t>55,1%</t>
-  </si>
-  <si>
-    <t>94,54%</t>
+    <t>50,21%</t>
+  </si>
+  <si>
+    <t>95,25%</t>
   </si>
   <si>
     <t>75,97%</t>
   </si>
   <si>
-    <t>50,5%</t>
-  </si>
-  <si>
-    <t>91,28%</t>
+    <t>53,19%</t>
+  </si>
+  <si>
+    <t>91,15%</t>
   </si>
   <si>
     <t>Sí, parcialmente</t>
@@ -113,19 +113,19 @@
     <t>19,23%</t>
   </si>
   <si>
-    <t>5,46%</t>
-  </si>
-  <si>
-    <t>44,9%</t>
+    <t>4,75%</t>
+  </si>
+  <si>
+    <t>49,79%</t>
   </si>
   <si>
     <t>6,26%</t>
   </si>
   <si>
-    <t>1,69%</t>
-  </si>
-  <si>
-    <t>17,88%</t>
+    <t>1,71%</t>
+  </si>
+  <si>
+    <t>16,74%</t>
   </si>
   <si>
     <t>Sí, totalmente</t>
@@ -134,10 +134,10 @@
     <t>26,35%</t>
   </si>
   <si>
-    <t>5,93%</t>
-  </si>
-  <si>
-    <t>55,81%</t>
+    <t>6,13%</t>
+  </si>
+  <si>
+    <t>59,79%</t>
   </si>
   <si>
     <t>13,49%</t>
@@ -146,10 +146,10 @@
     <t>17,77%</t>
   </si>
   <si>
-    <t>3,52%</t>
-  </si>
-  <si>
-    <t>43,35%</t>
+    <t>3,48%</t>
+  </si>
+  <si>
+    <t>44,41%</t>
   </si>
   <si>
     <t>100%</t>
@@ -161,82 +161,82 @@
     <t>68,99%</t>
   </si>
   <si>
-    <t>53,59%</t>
-  </si>
-  <si>
-    <t>79,97%</t>
+    <t>53,85%</t>
+  </si>
+  <si>
+    <t>80,13%</t>
   </si>
   <si>
     <t>76,63%</t>
   </si>
   <si>
-    <t>65,61%</t>
-  </si>
-  <si>
-    <t>85,19%</t>
+    <t>65,51%</t>
+  </si>
+  <si>
+    <t>85,48%</t>
   </si>
   <si>
     <t>72,76%</t>
   </si>
   <si>
-    <t>63,76%</t>
-  </si>
-  <si>
-    <t>81,38%</t>
+    <t>63,58%</t>
+  </si>
+  <si>
+    <t>79,89%</t>
   </si>
   <si>
     <t>14,24%</t>
   </si>
   <si>
-    <t>6,13%</t>
-  </si>
-  <si>
-    <t>27,43%</t>
+    <t>6,36%</t>
+  </si>
+  <si>
+    <t>27,92%</t>
   </si>
   <si>
     <t>9,2%</t>
   </si>
   <si>
-    <t>4,31%</t>
-  </si>
-  <si>
-    <t>16,94%</t>
+    <t>4,77%</t>
+  </si>
+  <si>
+    <t>17,0%</t>
   </si>
   <si>
     <t>11,75%</t>
   </si>
   <si>
-    <t>7,04%</t>
-  </si>
-  <si>
-    <t>19,46%</t>
+    <t>7,23%</t>
+  </si>
+  <si>
+    <t>20,05%</t>
   </si>
   <si>
     <t>16,77%</t>
   </si>
   <si>
-    <t>8,4%</t>
-  </si>
-  <si>
-    <t>29,7%</t>
+    <t>8,17%</t>
+  </si>
+  <si>
+    <t>29,18%</t>
   </si>
   <si>
     <t>14,17%</t>
   </si>
   <si>
-    <t>7,8%</t>
-  </si>
-  <si>
-    <t>24,31%</t>
+    <t>7,4%</t>
+  </si>
+  <si>
+    <t>23,68%</t>
   </si>
   <si>
     <t>15,49%</t>
   </si>
   <si>
-    <t>9,58%</t>
-  </si>
-  <si>
-    <t>24,23%</t>
+    <t>9,3%</t>
+  </si>
+  <si>
+    <t>23,35%</t>
   </si>
   <si>
     <t>10/50</t>
@@ -245,82 +245,82 @@
     <t>80,46%</t>
   </si>
   <si>
-    <t>69,39%</t>
-  </si>
-  <si>
-    <t>92,38%</t>
+    <t>69,5%</t>
+  </si>
+  <si>
+    <t>93,03%</t>
   </si>
   <si>
     <t>77,13%</t>
   </si>
   <si>
-    <t>68,95%</t>
-  </si>
-  <si>
-    <t>83,6%</t>
+    <t>68,78%</t>
+  </si>
+  <si>
+    <t>83,05%</t>
   </si>
   <si>
     <t>79,09%</t>
   </si>
   <si>
-    <t>72,28%</t>
-  </si>
-  <si>
-    <t>89,85%</t>
+    <t>72,27%</t>
+  </si>
+  <si>
+    <t>88,58%</t>
   </si>
   <si>
     <t>6,84%</t>
   </si>
   <si>
-    <t>1,91%</t>
-  </si>
-  <si>
-    <t>12,67%</t>
+    <t>1,98%</t>
+  </si>
+  <si>
+    <t>13,03%</t>
   </si>
   <si>
     <t>9,77%</t>
   </si>
   <si>
-    <t>5,81%</t>
-  </si>
-  <si>
-    <t>15,27%</t>
+    <t>5,99%</t>
+  </si>
+  <si>
+    <t>15,82%</t>
   </si>
   <si>
     <t>8,04%</t>
   </si>
   <si>
-    <t>4,38%</t>
-  </si>
-  <si>
-    <t>11,96%</t>
+    <t>4,33%</t>
+  </si>
+  <si>
+    <t>11,8%</t>
   </si>
   <si>
     <t>12,7%</t>
   </si>
   <si>
-    <t>4,59%</t>
-  </si>
-  <si>
-    <t>21,98%</t>
+    <t>4,23%</t>
+  </si>
+  <si>
+    <t>21,22%</t>
   </si>
   <si>
     <t>13,11%</t>
   </si>
   <si>
-    <t>7,72%</t>
-  </si>
-  <si>
-    <t>21,03%</t>
+    <t>7,98%</t>
+  </si>
+  <si>
+    <t>21,28%</t>
   </si>
   <si>
     <t>12,87%</t>
   </si>
   <si>
-    <t>6,5%</t>
-  </si>
-  <si>
-    <t>18,13%</t>
+    <t>6,88%</t>
+  </si>
+  <si>
+    <t>18,3%</t>
   </si>
   <si>
     <t>mas de 50</t>
@@ -329,82 +329,82 @@
     <t>73,84%</t>
   </si>
   <si>
-    <t>62,96%</t>
-  </si>
-  <si>
-    <t>83,94%</t>
+    <t>63,35%</t>
+  </si>
+  <si>
+    <t>84,34%</t>
   </si>
   <si>
     <t>83,37%</t>
   </si>
   <si>
-    <t>73,63%</t>
-  </si>
-  <si>
-    <t>90,23%</t>
+    <t>74,04%</t>
+  </si>
+  <si>
+    <t>89,68%</t>
   </si>
   <si>
     <t>78,81%</t>
   </si>
   <si>
-    <t>70,65%</t>
-  </si>
-  <si>
-    <t>85,06%</t>
+    <t>71,57%</t>
+  </si>
+  <si>
+    <t>84,64%</t>
   </si>
   <si>
     <t>16,26%</t>
   </si>
   <si>
-    <t>8,15%</t>
-  </si>
-  <si>
-    <t>26,17%</t>
+    <t>8,58%</t>
+  </si>
+  <si>
+    <t>26,7%</t>
   </si>
   <si>
     <t>7,56%</t>
   </si>
   <si>
-    <t>3,51%</t>
-  </si>
-  <si>
-    <t>14,23%</t>
+    <t>3,45%</t>
+  </si>
+  <si>
+    <t>13,63%</t>
   </si>
   <si>
     <t>11,72%</t>
   </si>
   <si>
-    <t>7,27%</t>
-  </si>
-  <si>
-    <t>17,8%</t>
+    <t>7,34%</t>
+  </si>
+  <si>
+    <t>17,93%</t>
   </si>
   <si>
     <t>9,9%</t>
   </si>
   <si>
-    <t>3,98%</t>
-  </si>
-  <si>
-    <t>18,11%</t>
+    <t>3,95%</t>
+  </si>
+  <si>
+    <t>19,51%</t>
   </si>
   <si>
     <t>9,08%</t>
   </si>
   <si>
-    <t>4,12%</t>
-  </si>
-  <si>
-    <t>18,64%</t>
+    <t>4,2%</t>
+  </si>
+  <si>
+    <t>18,44%</t>
   </si>
   <si>
     <t>9,47%</t>
   </si>
   <si>
-    <t>5,21%</t>
-  </si>
-  <si>
-    <t>15,55%</t>
+    <t>5,6%</t>
+  </si>
+  <si>
+    <t>15,72%</t>
   </si>
   <si>
     <t>Capitales</t>
@@ -413,163 +413,157 @@
     <t>80,65%</t>
   </si>
   <si>
-    <t>72,36%</t>
-  </si>
-  <si>
-    <t>87,13%</t>
-  </si>
-  <si>
-    <t>71,57%</t>
-  </si>
-  <si>
-    <t>64,14%</t>
-  </si>
-  <si>
-    <t>78,39%</t>
+    <t>72,13%</t>
+  </si>
+  <si>
+    <t>86,66%</t>
+  </si>
+  <si>
+    <t>64,39%</t>
+  </si>
+  <si>
+    <t>78,04%</t>
   </si>
   <si>
     <t>76,06%</t>
   </si>
   <si>
-    <t>70,69%</t>
-  </si>
-  <si>
-    <t>81,16%</t>
+    <t>70,45%</t>
+  </si>
+  <si>
+    <t>80,66%</t>
   </si>
   <si>
     <t>10,51%</t>
   </si>
   <si>
-    <t>5,54%</t>
-  </si>
-  <si>
-    <t>17,15%</t>
+    <t>5,91%</t>
+  </si>
+  <si>
+    <t>17,75%</t>
   </si>
   <si>
     <t>12,78%</t>
   </si>
   <si>
-    <t>8,31%</t>
-  </si>
-  <si>
-    <t>18,86%</t>
+    <t>8,1%</t>
+  </si>
+  <si>
+    <t>18,79%</t>
   </si>
   <si>
     <t>11,66%</t>
   </si>
   <si>
-    <t>7,93%</t>
-  </si>
-  <si>
-    <t>15,75%</t>
+    <t>8,37%</t>
+  </si>
+  <si>
+    <t>15,97%</t>
   </si>
   <si>
     <t>8,84%</t>
   </si>
   <si>
-    <t>4,46%</t>
-  </si>
-  <si>
-    <t>15,58%</t>
+    <t>16,23%</t>
   </si>
   <si>
     <t>15,65%</t>
   </si>
   <si>
-    <t>11,01%</t>
-  </si>
-  <si>
-    <t>21,54%</t>
+    <t>10,75%</t>
+  </si>
+  <si>
+    <t>21,77%</t>
   </si>
   <si>
     <t>12,29%</t>
   </si>
   <si>
-    <t>8,64%</t>
-  </si>
-  <si>
-    <t>16,57%</t>
+    <t>8,96%</t>
+  </si>
+  <si>
+    <t>16,56%</t>
   </si>
   <si>
     <t>77,63%</t>
   </si>
   <si>
-    <t>72,52%</t>
-  </si>
-  <si>
-    <t>84,88%</t>
+    <t>71,78%</t>
+  </si>
+  <si>
+    <t>84,14%</t>
   </si>
   <si>
     <t>76,76%</t>
   </si>
   <si>
-    <t>72,64%</t>
-  </si>
-  <si>
-    <t>80,68%</t>
+    <t>72,63%</t>
+  </si>
+  <si>
+    <t>80,2%</t>
   </si>
   <si>
     <t>77,22%</t>
   </si>
   <si>
-    <t>73,95%</t>
-  </si>
-  <si>
-    <t>81,78%</t>
+    <t>74,11%</t>
+  </si>
+  <si>
+    <t>81,82%</t>
   </si>
   <si>
     <t>10,23%</t>
   </si>
   <si>
-    <t>6,02%</t>
-  </si>
-  <si>
-    <t>13,76%</t>
+    <t>6,71%</t>
+  </si>
+  <si>
+    <t>13,97%</t>
   </si>
   <si>
     <t>10,35%</t>
   </si>
   <si>
-    <t>8,27%</t>
-  </si>
-  <si>
-    <t>13,81%</t>
+    <t>8,05%</t>
+  </si>
+  <si>
+    <t>13,31%</t>
   </si>
   <si>
     <t>10,28%</t>
   </si>
   <si>
-    <t>7,78%</t>
-  </si>
-  <si>
-    <t>12,46%</t>
+    <t>8,11%</t>
+  </si>
+  <si>
+    <t>12,68%</t>
   </si>
   <si>
     <t>12,14%</t>
   </si>
   <si>
-    <t>7,83%</t>
-  </si>
-  <si>
-    <t>15,66%</t>
+    <t>8,24%</t>
+  </si>
+  <si>
+    <t>16,66%</t>
   </si>
   <si>
     <t>12,9%</t>
   </si>
   <si>
-    <t>9,67%</t>
-  </si>
-  <si>
-    <t>16,18%</t>
+    <t>10,21%</t>
+  </si>
+  <si>
+    <t>16,44%</t>
   </si>
   <si>
     <t>12,49%</t>
   </si>
   <si>
-    <t>9,74%</t>
-  </si>
-  <si>
-    <t>14,89%</t>
+    <t>9,61%</t>
+  </si>
+  <si>
+    <t>14,95%</t>
   </si>
   <si>
     <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
@@ -984,7 +978,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{413FCFA2-27E6-4A95-9687-C332BEE6B8D9}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{87A9BF06-9276-498C-A5D7-83D3A65369CE}">
   <dimension ref="A1:Q28"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
@@ -1947,13 +1941,13 @@
         <v>92055</v>
       </c>
       <c r="J20" s="7" t="s">
+        <v>103</v>
+      </c>
+      <c r="K20" s="7" t="s">
         <v>127</v>
       </c>
-      <c r="K20" s="7" t="s">
+      <c r="L20" s="7" t="s">
         <v>128</v>
-      </c>
-      <c r="L20" s="7" t="s">
-        <v>129</v>
       </c>
       <c r="M20" s="7">
         <v>217</v>
@@ -1962,13 +1956,13 @@
         <v>193300</v>
       </c>
       <c r="O20" s="7" t="s">
+        <v>129</v>
+      </c>
+      <c r="P20" s="7" t="s">
         <v>130</v>
       </c>
-      <c r="P20" s="7" t="s">
+      <c r="Q20" s="7" t="s">
         <v>131</v>
-      </c>
-      <c r="Q20" s="7" t="s">
-        <v>132</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -1983,13 +1977,13 @@
         <v>13193</v>
       </c>
       <c r="E21" s="7" t="s">
+        <v>132</v>
+      </c>
+      <c r="F21" s="7" t="s">
         <v>133</v>
       </c>
-      <c r="F21" s="7" t="s">
+      <c r="G21" s="7" t="s">
         <v>134</v>
-      </c>
-      <c r="G21" s="7" t="s">
-        <v>135</v>
       </c>
       <c r="H21" s="7">
         <v>25</v>
@@ -1998,13 +1992,13 @@
         <v>16436</v>
       </c>
       <c r="J21" s="7" t="s">
+        <v>135</v>
+      </c>
+      <c r="K21" s="7" t="s">
         <v>136</v>
       </c>
-      <c r="K21" s="7" t="s">
+      <c r="L21" s="7" t="s">
         <v>137</v>
-      </c>
-      <c r="L21" s="7" t="s">
-        <v>138</v>
       </c>
       <c r="M21" s="7">
         <v>39</v>
@@ -2013,13 +2007,13 @@
         <v>29629</v>
       </c>
       <c r="O21" s="7" t="s">
+        <v>138</v>
+      </c>
+      <c r="P21" s="7" t="s">
         <v>139</v>
       </c>
-      <c r="P21" s="7" t="s">
+      <c r="Q21" s="7" t="s">
         <v>140</v>
-      </c>
-      <c r="Q21" s="7" t="s">
-        <v>141</v>
       </c>
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.3">
@@ -2034,13 +2028,13 @@
         <v>11097</v>
       </c>
       <c r="E22" s="7" t="s">
+        <v>141</v>
+      </c>
+      <c r="F22" s="7" t="s">
+        <v>25</v>
+      </c>
+      <c r="G22" s="7" t="s">
         <v>142</v>
-      </c>
-      <c r="F22" s="7" t="s">
-        <v>143</v>
-      </c>
-      <c r="G22" s="7" t="s">
-        <v>144</v>
       </c>
       <c r="H22" s="7">
         <v>30</v>
@@ -2049,13 +2043,13 @@
         <v>20131</v>
       </c>
       <c r="J22" s="7" t="s">
+        <v>143</v>
+      </c>
+      <c r="K22" s="7" t="s">
+        <v>144</v>
+      </c>
+      <c r="L22" s="7" t="s">
         <v>145</v>
-      </c>
-      <c r="K22" s="7" t="s">
-        <v>146</v>
-      </c>
-      <c r="L22" s="7" t="s">
-        <v>147</v>
       </c>
       <c r="M22" s="7">
         <v>41</v>
@@ -2064,13 +2058,13 @@
         <v>31228</v>
       </c>
       <c r="O22" s="7" t="s">
+        <v>146</v>
+      </c>
+      <c r="P22" s="7" t="s">
+        <v>147</v>
+      </c>
+      <c r="Q22" s="7" t="s">
         <v>148</v>
-      </c>
-      <c r="P22" s="7" t="s">
-        <v>149</v>
-      </c>
-      <c r="Q22" s="7" t="s">
-        <v>150</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -2138,13 +2132,13 @@
         <v>353647</v>
       </c>
       <c r="E24" s="7" t="s">
+        <v>149</v>
+      </c>
+      <c r="F24" s="7" t="s">
+        <v>150</v>
+      </c>
+      <c r="G24" s="7" t="s">
         <v>151</v>
-      </c>
-      <c r="F24" s="7" t="s">
-        <v>152</v>
-      </c>
-      <c r="G24" s="7" t="s">
-        <v>153</v>
       </c>
       <c r="H24" s="7">
         <v>413</v>
@@ -2153,13 +2147,13 @@
         <v>309646</v>
       </c>
       <c r="J24" s="7" t="s">
+        <v>152</v>
+      </c>
+      <c r="K24" s="7" t="s">
+        <v>153</v>
+      </c>
+      <c r="L24" s="7" t="s">
         <v>154</v>
-      </c>
-      <c r="K24" s="7" t="s">
-        <v>155</v>
-      </c>
-      <c r="L24" s="7" t="s">
-        <v>156</v>
       </c>
       <c r="M24" s="7">
         <v>688</v>
@@ -2168,13 +2162,13 @@
         <v>663293</v>
       </c>
       <c r="O24" s="7" t="s">
+        <v>155</v>
+      </c>
+      <c r="P24" s="7" t="s">
+        <v>156</v>
+      </c>
+      <c r="Q24" s="7" t="s">
         <v>157</v>
-      </c>
-      <c r="P24" s="7" t="s">
-        <v>158</v>
-      </c>
-      <c r="Q24" s="7" t="s">
-        <v>159</v>
       </c>
     </row>
     <row r="25" spans="1:17" x14ac:dyDescent="0.3">
@@ -2189,13 +2183,13 @@
         <v>46596</v>
       </c>
       <c r="E25" s="7" t="s">
+        <v>158</v>
+      </c>
+      <c r="F25" s="7" t="s">
+        <v>159</v>
+      </c>
+      <c r="G25" s="7" t="s">
         <v>160</v>
-      </c>
-      <c r="F25" s="7" t="s">
-        <v>161</v>
-      </c>
-      <c r="G25" s="7" t="s">
-        <v>162</v>
       </c>
       <c r="H25" s="7">
         <v>63</v>
@@ -2204,13 +2198,13 @@
         <v>41734</v>
       </c>
       <c r="J25" s="7" t="s">
+        <v>161</v>
+      </c>
+      <c r="K25" s="7" t="s">
+        <v>162</v>
+      </c>
+      <c r="L25" s="7" t="s">
         <v>163</v>
-      </c>
-      <c r="K25" s="7" t="s">
-        <v>164</v>
-      </c>
-      <c r="L25" s="7" t="s">
-        <v>165</v>
       </c>
       <c r="M25" s="7">
         <v>107</v>
@@ -2219,13 +2213,13 @@
         <v>88330</v>
       </c>
       <c r="O25" s="7" t="s">
+        <v>164</v>
+      </c>
+      <c r="P25" s="7" t="s">
+        <v>165</v>
+      </c>
+      <c r="Q25" s="7" t="s">
         <v>166</v>
-      </c>
-      <c r="P25" s="7" t="s">
-        <v>167</v>
-      </c>
-      <c r="Q25" s="7" t="s">
-        <v>168</v>
       </c>
     </row>
     <row r="26" spans="1:17" x14ac:dyDescent="0.3">
@@ -2240,13 +2234,13 @@
         <v>55284</v>
       </c>
       <c r="E26" s="7" t="s">
+        <v>167</v>
+      </c>
+      <c r="F26" s="7" t="s">
+        <v>168</v>
+      </c>
+      <c r="G26" s="7" t="s">
         <v>169</v>
-      </c>
-      <c r="F26" s="7" t="s">
-        <v>170</v>
-      </c>
-      <c r="G26" s="7" t="s">
-        <v>171</v>
       </c>
       <c r="H26" s="7">
         <v>65</v>
@@ -2255,13 +2249,13 @@
         <v>52033</v>
       </c>
       <c r="J26" s="7" t="s">
+        <v>170</v>
+      </c>
+      <c r="K26" s="7" t="s">
+        <v>171</v>
+      </c>
+      <c r="L26" s="7" t="s">
         <v>172</v>
-      </c>
-      <c r="K26" s="7" t="s">
-        <v>173</v>
-      </c>
-      <c r="L26" s="7" t="s">
-        <v>174</v>
       </c>
       <c r="M26" s="7">
         <v>115</v>
@@ -2270,13 +2264,13 @@
         <v>107317</v>
       </c>
       <c r="O26" s="7" t="s">
+        <v>173</v>
+      </c>
+      <c r="P26" s="7" t="s">
+        <v>174</v>
+      </c>
+      <c r="Q26" s="7" t="s">
         <v>175</v>
-      </c>
-      <c r="P26" s="7" t="s">
-        <v>176</v>
-      </c>
-      <c r="Q26" s="7" t="s">
-        <v>177</v>
       </c>
     </row>
     <row r="27" spans="1:17" x14ac:dyDescent="0.3">
@@ -2332,7 +2326,7 @@
     </row>
     <row r="28" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A28" t="s">
-        <v>178</v>
+        <v>176</v>
       </c>
     </row>
   </sheetData>

--- a/data/trans_orig/P70A_2023-Habitat-trans_orig.xlsx
+++ b/data/trans_orig/P70A_2023-Habitat-trans_orig.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{6E4579A1-FCA6-488B-9698-645C9492BC95}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{6893C240-07DE-40D9-A37E-AAD5E9C8EA13}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1536" yWindow="1536" windowWidth="17280" windowHeight="8880" xr2:uid="{8AECA27B-46EC-4378-8D20-3DEF3974859A}"/>
+    <workbookView xWindow="2232" yWindow="2232" windowWidth="17280" windowHeight="8880" xr2:uid="{48C37304-EC9E-4007-A1EA-6C2F60757E77}"/>
   </bookViews>
   <sheets>
     <sheet name="2023" sheetId="2" r:id="rId1"/>
@@ -65,7 +65,7 @@
     <t>lím sup IC</t>
   </si>
   <si>
-    <t>Menos de 2</t>
+    <t>&lt;2.000hab</t>
   </si>
   <si>
     <t>No</t>
@@ -155,7 +155,7 @@
     <t>100%</t>
   </si>
   <si>
-    <t>2/10</t>
+    <t>2-10.000 hab</t>
   </si>
   <si>
     <t>68,99%</t>
@@ -239,7 +239,7 @@
     <t>23,35%</t>
   </si>
   <si>
-    <t>10/50</t>
+    <t>10-50.000 hab</t>
   </si>
   <si>
     <t>80,46%</t>
@@ -323,7 +323,7 @@
     <t>18,3%</t>
   </si>
   <si>
-    <t>mas de 50</t>
+    <t>&gt;50.000hab</t>
   </si>
   <si>
     <t>73,84%</t>
@@ -978,7 +978,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{87A9BF06-9276-498C-A5D7-83D3A65369CE}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1C453AD8-875C-4732-9C0D-C6C27D03941C}">
   <dimension ref="A1:Q28"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">

--- a/data/trans_orig/P70A_2023-Habitat-trans_orig.xlsx
+++ b/data/trans_orig/P70A_2023-Habitat-trans_orig.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27328"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27425"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{6893C240-07DE-40D9-A37E-AAD5E9C8EA13}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{3AFE7FB5-FE4E-40AE-9A50-EF3CA6B70956}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2232" yWindow="2232" windowWidth="17280" windowHeight="8880" xr2:uid="{48C37304-EC9E-4007-A1EA-6C2F60757E77}"/>
+    <workbookView xWindow="2232" yWindow="2232" windowWidth="17280" windowHeight="8880" xr2:uid="{01DB99CC-0149-46BE-9E17-D1CBB773D0F9}"/>
   </bookViews>
   <sheets>
     <sheet name="2023" sheetId="2" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="266" uniqueCount="177">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="266" uniqueCount="179">
   <si>
     <t>Población según si dichos problemas de salud fueron causados por su trabajo en 2023 (Tasa respuesta: 10,41%)</t>
   </si>
@@ -74,28 +74,28 @@
     <t>73,65%</t>
   </si>
   <si>
-    <t>40,21%</t>
-  </si>
-  <si>
-    <t>93,87%</t>
+    <t>44,19%</t>
+  </si>
+  <si>
+    <t>94,07%</t>
   </si>
   <si>
     <t>80,77%</t>
   </si>
   <si>
-    <t>50,21%</t>
-  </si>
-  <si>
-    <t>95,25%</t>
+    <t>55,1%</t>
+  </si>
+  <si>
+    <t>94,54%</t>
   </si>
   <si>
     <t>75,97%</t>
   </si>
   <si>
-    <t>53,19%</t>
-  </si>
-  <si>
-    <t>91,15%</t>
+    <t>50,5%</t>
+  </si>
+  <si>
+    <t>91,28%</t>
   </si>
   <si>
     <t>Sí, parcialmente</t>
@@ -113,19 +113,19 @@
     <t>19,23%</t>
   </si>
   <si>
-    <t>4,75%</t>
-  </si>
-  <si>
-    <t>49,79%</t>
+    <t>5,46%</t>
+  </si>
+  <si>
+    <t>44,9%</t>
   </si>
   <si>
     <t>6,26%</t>
   </si>
   <si>
-    <t>1,71%</t>
-  </si>
-  <si>
-    <t>16,74%</t>
+    <t>1,69%</t>
+  </si>
+  <si>
+    <t>17,88%</t>
   </si>
   <si>
     <t>Sí, totalmente</t>
@@ -134,109 +134,109 @@
     <t>26,35%</t>
   </si>
   <si>
+    <t>5,93%</t>
+  </si>
+  <si>
+    <t>55,81%</t>
+  </si>
+  <si>
+    <t>13,49%</t>
+  </si>
+  <si>
+    <t>17,77%</t>
+  </si>
+  <si>
+    <t>3,52%</t>
+  </si>
+  <si>
+    <t>43,35%</t>
+  </si>
+  <si>
+    <t>100%</t>
+  </si>
+  <si>
+    <t>2-10.000 hab</t>
+  </si>
+  <si>
+    <t>68,99%</t>
+  </si>
+  <si>
+    <t>53,59%</t>
+  </si>
+  <si>
+    <t>79,97%</t>
+  </si>
+  <si>
+    <t>76,63%</t>
+  </si>
+  <si>
+    <t>65,61%</t>
+  </si>
+  <si>
+    <t>85,19%</t>
+  </si>
+  <si>
+    <t>72,76%</t>
+  </si>
+  <si>
+    <t>63,76%</t>
+  </si>
+  <si>
+    <t>81,38%</t>
+  </si>
+  <si>
+    <t>14,24%</t>
+  </si>
+  <si>
     <t>6,13%</t>
   </si>
   <si>
-    <t>59,79%</t>
-  </si>
-  <si>
-    <t>13,49%</t>
-  </si>
-  <si>
-    <t>17,77%</t>
-  </si>
-  <si>
-    <t>3,48%</t>
-  </si>
-  <si>
-    <t>44,41%</t>
-  </si>
-  <si>
-    <t>100%</t>
-  </si>
-  <si>
-    <t>2-10.000 hab</t>
-  </si>
-  <si>
-    <t>68,99%</t>
-  </si>
-  <si>
-    <t>53,85%</t>
-  </si>
-  <si>
-    <t>80,13%</t>
-  </si>
-  <si>
-    <t>76,63%</t>
-  </si>
-  <si>
-    <t>65,51%</t>
-  </si>
-  <si>
-    <t>85,48%</t>
-  </si>
-  <si>
-    <t>72,76%</t>
-  </si>
-  <si>
-    <t>63,58%</t>
-  </si>
-  <si>
-    <t>79,89%</t>
-  </si>
-  <si>
-    <t>14,24%</t>
-  </si>
-  <si>
-    <t>6,36%</t>
-  </si>
-  <si>
-    <t>27,92%</t>
+    <t>27,43%</t>
   </si>
   <si>
     <t>9,2%</t>
   </si>
   <si>
-    <t>4,77%</t>
-  </si>
-  <si>
-    <t>17,0%</t>
+    <t>4,31%</t>
+  </si>
+  <si>
+    <t>16,94%</t>
   </si>
   <si>
     <t>11,75%</t>
   </si>
   <si>
-    <t>7,23%</t>
-  </si>
-  <si>
-    <t>20,05%</t>
+    <t>7,04%</t>
+  </si>
+  <si>
+    <t>19,46%</t>
   </si>
   <si>
     <t>16,77%</t>
   </si>
   <si>
-    <t>8,17%</t>
-  </si>
-  <si>
-    <t>29,18%</t>
+    <t>8,4%</t>
+  </si>
+  <si>
+    <t>29,7%</t>
   </si>
   <si>
     <t>14,17%</t>
   </si>
   <si>
-    <t>7,4%</t>
-  </si>
-  <si>
-    <t>23,68%</t>
+    <t>7,8%</t>
+  </si>
+  <si>
+    <t>24,31%</t>
   </si>
   <si>
     <t>15,49%</t>
   </si>
   <si>
-    <t>9,3%</t>
-  </si>
-  <si>
-    <t>23,35%</t>
+    <t>9,58%</t>
+  </si>
+  <si>
+    <t>24,23%</t>
   </si>
   <si>
     <t>10-50.000 hab</t>
@@ -245,82 +245,82 @@
     <t>80,46%</t>
   </si>
   <si>
-    <t>69,5%</t>
-  </si>
-  <si>
-    <t>93,03%</t>
+    <t>69,39%</t>
+  </si>
+  <si>
+    <t>92,38%</t>
   </si>
   <si>
     <t>77,13%</t>
   </si>
   <si>
-    <t>68,78%</t>
-  </si>
-  <si>
-    <t>83,05%</t>
+    <t>68,95%</t>
+  </si>
+  <si>
+    <t>83,6%</t>
   </si>
   <si>
     <t>79,09%</t>
   </si>
   <si>
-    <t>72,27%</t>
-  </si>
-  <si>
-    <t>88,58%</t>
+    <t>72,28%</t>
+  </si>
+  <si>
+    <t>89,85%</t>
   </si>
   <si>
     <t>6,84%</t>
   </si>
   <si>
-    <t>1,98%</t>
-  </si>
-  <si>
-    <t>13,03%</t>
+    <t>1,91%</t>
+  </si>
+  <si>
+    <t>12,67%</t>
   </si>
   <si>
     <t>9,77%</t>
   </si>
   <si>
-    <t>5,99%</t>
-  </si>
-  <si>
-    <t>15,82%</t>
+    <t>5,81%</t>
+  </si>
+  <si>
+    <t>15,27%</t>
   </si>
   <si>
     <t>8,04%</t>
   </si>
   <si>
-    <t>4,33%</t>
-  </si>
-  <si>
-    <t>11,8%</t>
+    <t>4,38%</t>
+  </si>
+  <si>
+    <t>11,96%</t>
   </si>
   <si>
     <t>12,7%</t>
   </si>
   <si>
-    <t>4,23%</t>
-  </si>
-  <si>
-    <t>21,22%</t>
+    <t>4,59%</t>
+  </si>
+  <si>
+    <t>21,98%</t>
   </si>
   <si>
     <t>13,11%</t>
   </si>
   <si>
-    <t>7,98%</t>
-  </si>
-  <si>
-    <t>21,28%</t>
+    <t>7,72%</t>
+  </si>
+  <si>
+    <t>21,03%</t>
   </si>
   <si>
     <t>12,87%</t>
   </si>
   <si>
-    <t>6,88%</t>
-  </si>
-  <si>
-    <t>18,3%</t>
+    <t>6,5%</t>
+  </si>
+  <si>
+    <t>18,13%</t>
   </si>
   <si>
     <t>&gt;50.000hab</t>
@@ -329,241 +329,247 @@
     <t>73,84%</t>
   </si>
   <si>
-    <t>63,35%</t>
-  </si>
-  <si>
-    <t>84,34%</t>
+    <t>62,96%</t>
+  </si>
+  <si>
+    <t>83,94%</t>
   </si>
   <si>
     <t>83,37%</t>
   </si>
   <si>
-    <t>74,04%</t>
-  </si>
-  <si>
-    <t>89,68%</t>
+    <t>73,63%</t>
+  </si>
+  <si>
+    <t>90,23%</t>
   </si>
   <si>
     <t>78,81%</t>
   </si>
   <si>
+    <t>70,65%</t>
+  </si>
+  <si>
+    <t>85,06%</t>
+  </si>
+  <si>
+    <t>16,26%</t>
+  </si>
+  <si>
+    <t>8,15%</t>
+  </si>
+  <si>
+    <t>26,17%</t>
+  </si>
+  <si>
+    <t>7,56%</t>
+  </si>
+  <si>
+    <t>3,51%</t>
+  </si>
+  <si>
+    <t>14,23%</t>
+  </si>
+  <si>
+    <t>11,72%</t>
+  </si>
+  <si>
+    <t>7,27%</t>
+  </si>
+  <si>
+    <t>17,8%</t>
+  </si>
+  <si>
+    <t>9,9%</t>
+  </si>
+  <si>
+    <t>3,98%</t>
+  </si>
+  <si>
+    <t>18,11%</t>
+  </si>
+  <si>
+    <t>9,08%</t>
+  </si>
+  <si>
+    <t>4,12%</t>
+  </si>
+  <si>
+    <t>18,64%</t>
+  </si>
+  <si>
+    <t>9,47%</t>
+  </si>
+  <si>
+    <t>5,21%</t>
+  </si>
+  <si>
+    <t>15,55%</t>
+  </si>
+  <si>
+    <t>Capitales</t>
+  </si>
+  <si>
+    <t>80,65%</t>
+  </si>
+  <si>
+    <t>72,36%</t>
+  </si>
+  <si>
+    <t>87,13%</t>
+  </si>
+  <si>
     <t>71,57%</t>
   </si>
   <si>
-    <t>84,64%</t>
-  </si>
-  <si>
-    <t>16,26%</t>
-  </si>
-  <si>
-    <t>8,58%</t>
-  </si>
-  <si>
-    <t>26,7%</t>
-  </si>
-  <si>
-    <t>7,56%</t>
-  </si>
-  <si>
-    <t>3,45%</t>
-  </si>
-  <si>
-    <t>13,63%</t>
-  </si>
-  <si>
-    <t>11,72%</t>
-  </si>
-  <si>
-    <t>7,34%</t>
-  </si>
-  <si>
-    <t>17,93%</t>
-  </si>
-  <si>
-    <t>9,9%</t>
-  </si>
-  <si>
-    <t>3,95%</t>
-  </si>
-  <si>
-    <t>19,51%</t>
-  </si>
-  <si>
-    <t>9,08%</t>
-  </si>
-  <si>
-    <t>4,2%</t>
-  </si>
-  <si>
-    <t>18,44%</t>
-  </si>
-  <si>
-    <t>9,47%</t>
-  </si>
-  <si>
-    <t>5,6%</t>
-  </si>
-  <si>
-    <t>15,72%</t>
-  </si>
-  <si>
-    <t>Capitales</t>
-  </si>
-  <si>
-    <t>80,65%</t>
-  </si>
-  <si>
-    <t>72,13%</t>
-  </si>
-  <si>
-    <t>86,66%</t>
-  </si>
-  <si>
-    <t>64,39%</t>
-  </si>
-  <si>
-    <t>78,04%</t>
+    <t>64,14%</t>
+  </si>
+  <si>
+    <t>78,39%</t>
   </si>
   <si>
     <t>76,06%</t>
   </si>
   <si>
-    <t>70,45%</t>
-  </si>
-  <si>
-    <t>80,66%</t>
+    <t>70,69%</t>
+  </si>
+  <si>
+    <t>81,16%</t>
   </si>
   <si>
     <t>10,51%</t>
   </si>
   <si>
-    <t>5,91%</t>
-  </si>
-  <si>
-    <t>17,75%</t>
+    <t>5,54%</t>
+  </si>
+  <si>
+    <t>17,15%</t>
   </si>
   <si>
     <t>12,78%</t>
   </si>
   <si>
-    <t>8,1%</t>
-  </si>
-  <si>
-    <t>18,79%</t>
+    <t>8,31%</t>
+  </si>
+  <si>
+    <t>18,86%</t>
   </si>
   <si>
     <t>11,66%</t>
   </si>
   <si>
-    <t>8,37%</t>
-  </si>
-  <si>
-    <t>15,97%</t>
+    <t>7,93%</t>
+  </si>
+  <si>
+    <t>15,75%</t>
   </si>
   <si>
     <t>8,84%</t>
   </si>
   <si>
-    <t>16,23%</t>
+    <t>4,46%</t>
+  </si>
+  <si>
+    <t>15,58%</t>
   </si>
   <si>
     <t>15,65%</t>
   </si>
   <si>
-    <t>10,75%</t>
-  </si>
-  <si>
-    <t>21,77%</t>
+    <t>11,01%</t>
+  </si>
+  <si>
+    <t>21,54%</t>
   </si>
   <si>
     <t>12,29%</t>
   </si>
   <si>
-    <t>8,96%</t>
-  </si>
-  <si>
-    <t>16,56%</t>
+    <t>8,64%</t>
+  </si>
+  <si>
+    <t>16,57%</t>
   </si>
   <si>
     <t>77,63%</t>
   </si>
   <si>
-    <t>71,78%</t>
-  </si>
-  <si>
-    <t>84,14%</t>
+    <t>72,52%</t>
+  </si>
+  <si>
+    <t>84,88%</t>
   </si>
   <si>
     <t>76,76%</t>
   </si>
   <si>
-    <t>72,63%</t>
-  </si>
-  <si>
-    <t>80,2%</t>
+    <t>72,64%</t>
+  </si>
+  <si>
+    <t>80,68%</t>
   </si>
   <si>
     <t>77,22%</t>
   </si>
   <si>
-    <t>74,11%</t>
-  </si>
-  <si>
-    <t>81,82%</t>
+    <t>73,95%</t>
+  </si>
+  <si>
+    <t>81,78%</t>
   </si>
   <si>
     <t>10,23%</t>
   </si>
   <si>
-    <t>6,71%</t>
-  </si>
-  <si>
-    <t>13,97%</t>
+    <t>6,02%</t>
+  </si>
+  <si>
+    <t>13,76%</t>
   </si>
   <si>
     <t>10,35%</t>
   </si>
   <si>
-    <t>8,05%</t>
-  </si>
-  <si>
-    <t>13,31%</t>
+    <t>8,27%</t>
+  </si>
+  <si>
+    <t>13,81%</t>
   </si>
   <si>
     <t>10,28%</t>
   </si>
   <si>
-    <t>8,11%</t>
-  </si>
-  <si>
-    <t>12,68%</t>
+    <t>7,78%</t>
+  </si>
+  <si>
+    <t>12,46%</t>
   </si>
   <si>
     <t>12,14%</t>
   </si>
   <si>
-    <t>8,24%</t>
-  </si>
-  <si>
-    <t>16,66%</t>
+    <t>7,83%</t>
+  </si>
+  <si>
+    <t>15,66%</t>
   </si>
   <si>
     <t>12,9%</t>
   </si>
   <si>
-    <t>10,21%</t>
-  </si>
-  <si>
-    <t>16,44%</t>
+    <t>9,67%</t>
+  </si>
+  <si>
+    <t>16,18%</t>
   </si>
   <si>
     <t>12,49%</t>
   </si>
   <si>
-    <t>9,61%</t>
-  </si>
-  <si>
-    <t>14,95%</t>
+    <t>9,74%</t>
+  </si>
+  <si>
+    <t>14,89%</t>
   </si>
   <si>
     <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
@@ -978,7 +984,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1C453AD8-875C-4732-9C0D-C6C27D03941C}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{144C1FFD-F44B-4FD1-82B4-275E03A35442}">
   <dimension ref="A1:Q28"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
@@ -1941,13 +1947,13 @@
         <v>92055</v>
       </c>
       <c r="J20" s="7" t="s">
-        <v>103</v>
+        <v>127</v>
       </c>
       <c r="K20" s="7" t="s">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="L20" s="7" t="s">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="M20" s="7">
         <v>217</v>
@@ -1956,13 +1962,13 @@
         <v>193300</v>
       </c>
       <c r="O20" s="7" t="s">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="P20" s="7" t="s">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>131</v>
+        <v>132</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -1977,13 +1983,13 @@
         <v>13193</v>
       </c>
       <c r="E21" s="7" t="s">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="F21" s="7" t="s">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="G21" s="7" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="H21" s="7">
         <v>25</v>
@@ -1992,13 +1998,13 @@
         <v>16436</v>
       </c>
       <c r="J21" s="7" t="s">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="K21" s="7" t="s">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="L21" s="7" t="s">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="M21" s="7">
         <v>39</v>
@@ -2007,13 +2013,13 @@
         <v>29629</v>
       </c>
       <c r="O21" s="7" t="s">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="P21" s="7" t="s">
-        <v>139</v>
+        <v>140</v>
       </c>
       <c r="Q21" s="7" t="s">
-        <v>140</v>
+        <v>141</v>
       </c>
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.3">
@@ -2028,13 +2034,13 @@
         <v>11097</v>
       </c>
       <c r="E22" s="7" t="s">
-        <v>141</v>
+        <v>142</v>
       </c>
       <c r="F22" s="7" t="s">
-        <v>25</v>
+        <v>143</v>
       </c>
       <c r="G22" s="7" t="s">
-        <v>142</v>
+        <v>144</v>
       </c>
       <c r="H22" s="7">
         <v>30</v>
@@ -2043,13 +2049,13 @@
         <v>20131</v>
       </c>
       <c r="J22" s="7" t="s">
-        <v>143</v>
+        <v>145</v>
       </c>
       <c r="K22" s="7" t="s">
-        <v>144</v>
+        <v>146</v>
       </c>
       <c r="L22" s="7" t="s">
-        <v>145</v>
+        <v>147</v>
       </c>
       <c r="M22" s="7">
         <v>41</v>
@@ -2058,13 +2064,13 @@
         <v>31228</v>
       </c>
       <c r="O22" s="7" t="s">
-        <v>146</v>
+        <v>148</v>
       </c>
       <c r="P22" s="7" t="s">
-        <v>147</v>
+        <v>149</v>
       </c>
       <c r="Q22" s="7" t="s">
-        <v>148</v>
+        <v>150</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -2132,13 +2138,13 @@
         <v>353647</v>
       </c>
       <c r="E24" s="7" t="s">
-        <v>149</v>
+        <v>151</v>
       </c>
       <c r="F24" s="7" t="s">
-        <v>150</v>
+        <v>152</v>
       </c>
       <c r="G24" s="7" t="s">
-        <v>151</v>
+        <v>153</v>
       </c>
       <c r="H24" s="7">
         <v>413</v>
@@ -2147,13 +2153,13 @@
         <v>309646</v>
       </c>
       <c r="J24" s="7" t="s">
-        <v>152</v>
+        <v>154</v>
       </c>
       <c r="K24" s="7" t="s">
-        <v>153</v>
+        <v>155</v>
       </c>
       <c r="L24" s="7" t="s">
-        <v>154</v>
+        <v>156</v>
       </c>
       <c r="M24" s="7">
         <v>688</v>
@@ -2162,13 +2168,13 @@
         <v>663293</v>
       </c>
       <c r="O24" s="7" t="s">
-        <v>155</v>
+        <v>157</v>
       </c>
       <c r="P24" s="7" t="s">
-        <v>156</v>
+        <v>158</v>
       </c>
       <c r="Q24" s="7" t="s">
-        <v>157</v>
+        <v>159</v>
       </c>
     </row>
     <row r="25" spans="1:17" x14ac:dyDescent="0.3">
@@ -2183,13 +2189,13 @@
         <v>46596</v>
       </c>
       <c r="E25" s="7" t="s">
-        <v>158</v>
+        <v>160</v>
       </c>
       <c r="F25" s="7" t="s">
-        <v>159</v>
+        <v>161</v>
       </c>
       <c r="G25" s="7" t="s">
-        <v>160</v>
+        <v>162</v>
       </c>
       <c r="H25" s="7">
         <v>63</v>
@@ -2198,13 +2204,13 @@
         <v>41734</v>
       </c>
       <c r="J25" s="7" t="s">
-        <v>161</v>
+        <v>163</v>
       </c>
       <c r="K25" s="7" t="s">
-        <v>162</v>
+        <v>164</v>
       </c>
       <c r="L25" s="7" t="s">
-        <v>163</v>
+        <v>165</v>
       </c>
       <c r="M25" s="7">
         <v>107</v>
@@ -2213,13 +2219,13 @@
         <v>88330</v>
       </c>
       <c r="O25" s="7" t="s">
-        <v>164</v>
+        <v>166</v>
       </c>
       <c r="P25" s="7" t="s">
-        <v>165</v>
+        <v>167</v>
       </c>
       <c r="Q25" s="7" t="s">
-        <v>166</v>
+        <v>168</v>
       </c>
     </row>
     <row r="26" spans="1:17" x14ac:dyDescent="0.3">
@@ -2234,13 +2240,13 @@
         <v>55284</v>
       </c>
       <c r="E26" s="7" t="s">
-        <v>167</v>
+        <v>169</v>
       </c>
       <c r="F26" s="7" t="s">
-        <v>168</v>
+        <v>170</v>
       </c>
       <c r="G26" s="7" t="s">
-        <v>169</v>
+        <v>171</v>
       </c>
       <c r="H26" s="7">
         <v>65</v>
@@ -2249,13 +2255,13 @@
         <v>52033</v>
       </c>
       <c r="J26" s="7" t="s">
-        <v>170</v>
+        <v>172</v>
       </c>
       <c r="K26" s="7" t="s">
-        <v>171</v>
+        <v>173</v>
       </c>
       <c r="L26" s="7" t="s">
-        <v>172</v>
+        <v>174</v>
       </c>
       <c r="M26" s="7">
         <v>115</v>
@@ -2264,13 +2270,13 @@
         <v>107317</v>
       </c>
       <c r="O26" s="7" t="s">
-        <v>173</v>
+        <v>175</v>
       </c>
       <c r="P26" s="7" t="s">
-        <v>174</v>
+        <v>176</v>
       </c>
       <c r="Q26" s="7" t="s">
-        <v>175</v>
+        <v>177</v>
       </c>
     </row>
     <row r="27" spans="1:17" x14ac:dyDescent="0.3">
@@ -2326,7 +2332,7 @@
     </row>
     <row r="28" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A28" t="s">
-        <v>176</v>
+        <v>178</v>
       </c>
     </row>
   </sheetData>

--- a/data/trans_orig/P70A_2023-Habitat-trans_orig.xlsx
+++ b/data/trans_orig/P70A_2023-Habitat-trans_orig.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27425"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27531"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{3AFE7FB5-FE4E-40AE-9A50-EF3CA6B70956}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{B6D397E0-AF84-46F5-82DD-FAA7AAC25941}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2232" yWindow="2232" windowWidth="17280" windowHeight="8880" xr2:uid="{01DB99CC-0149-46BE-9E17-D1CBB773D0F9}"/>
+    <workbookView xWindow="2580" yWindow="2580" windowWidth="17280" windowHeight="8880" xr2:uid="{4A11E827-EE56-45E5-8FCC-8E686327DD5C}"/>
   </bookViews>
   <sheets>
     <sheet name="2023" sheetId="2" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="266" uniqueCount="179">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="225" uniqueCount="152">
   <si>
     <t>Población según si dichos problemas de salud fueron causados por su trabajo en 2023 (Tasa respuesta: 10,41%)</t>
   </si>
@@ -65,511 +65,430 @@
     <t>lím sup IC</t>
   </si>
   <si>
-    <t>&lt;2.000hab</t>
+    <t>&lt;10.000 hab</t>
   </si>
   <si>
     <t>No</t>
   </si>
   <si>
-    <t>73,65%</t>
-  </si>
-  <si>
-    <t>44,19%</t>
-  </si>
-  <si>
-    <t>94,07%</t>
-  </si>
-  <si>
-    <t>80,77%</t>
-  </si>
-  <si>
-    <t>55,1%</t>
-  </si>
-  <si>
-    <t>94,54%</t>
-  </si>
-  <si>
-    <t>75,97%</t>
-  </si>
-  <si>
-    <t>50,5%</t>
-  </si>
-  <si>
-    <t>91,28%</t>
+    <t>70,48%</t>
+  </si>
+  <si>
+    <t>58,05%</t>
+  </si>
+  <si>
+    <t>81,02%</t>
+  </si>
+  <si>
+    <t>77,47%</t>
+  </si>
+  <si>
+    <t>67,79%</t>
+  </si>
+  <si>
+    <t>84,73%</t>
+  </si>
+  <si>
+    <t>73,67%</t>
+  </si>
+  <si>
+    <t>65,32%</t>
   </si>
   <si>
     <t>Sí, parcialmente</t>
   </si>
   <si>
-    <t>0,0%</t>
-  </si>
-  <si>
-    <t>0%</t>
-  </si>
-  <si>
-    <t>11,15%</t>
-  </si>
-  <si>
-    <t>19,23%</t>
-  </si>
-  <si>
-    <t>5,46%</t>
-  </si>
-  <si>
-    <t>44,9%</t>
-  </si>
-  <si>
-    <t>6,26%</t>
-  </si>
-  <si>
-    <t>1,69%</t>
-  </si>
-  <si>
-    <t>17,88%</t>
+    <t>10,58%</t>
+  </si>
+  <si>
+    <t>3,82%</t>
+  </si>
+  <si>
+    <t>20,15%</t>
+  </si>
+  <si>
+    <t>10,7%</t>
+  </si>
+  <si>
+    <t>5,99%</t>
+  </si>
+  <si>
+    <t>18,24%</t>
+  </si>
+  <si>
+    <t>10,63%</t>
+  </si>
+  <si>
+    <t>6,22%</t>
+  </si>
+  <si>
+    <t>16,69%</t>
   </si>
   <si>
     <t>Sí, totalmente</t>
   </si>
   <si>
-    <t>26,35%</t>
-  </si>
-  <si>
-    <t>5,93%</t>
-  </si>
-  <si>
-    <t>55,81%</t>
-  </si>
-  <si>
-    <t>13,49%</t>
-  </si>
-  <si>
-    <t>17,77%</t>
-  </si>
-  <si>
-    <t>3,52%</t>
-  </si>
-  <si>
-    <t>43,35%</t>
+    <t>18,94%</t>
+  </si>
+  <si>
+    <t>10,02%</t>
+  </si>
+  <si>
+    <t>30,99%</t>
+  </si>
+  <si>
+    <t>11,83%</t>
+  </si>
+  <si>
+    <t>6,05%</t>
+  </si>
+  <si>
+    <t>19,32%</t>
+  </si>
+  <si>
+    <t>15,7%</t>
+  </si>
+  <si>
+    <t>10,01%</t>
+  </si>
+  <si>
+    <t>22,9%</t>
   </si>
   <si>
     <t>100%</t>
   </si>
   <si>
-    <t>2-10.000 hab</t>
-  </si>
-  <si>
-    <t>68,99%</t>
-  </si>
-  <si>
-    <t>53,59%</t>
-  </si>
-  <si>
-    <t>79,97%</t>
-  </si>
-  <si>
-    <t>76,63%</t>
-  </si>
-  <si>
-    <t>65,61%</t>
-  </si>
-  <si>
-    <t>85,19%</t>
-  </si>
-  <si>
-    <t>72,76%</t>
-  </si>
-  <si>
-    <t>63,76%</t>
-  </si>
-  <si>
-    <t>81,38%</t>
-  </si>
-  <si>
-    <t>14,24%</t>
-  </si>
-  <si>
-    <t>6,13%</t>
-  </si>
-  <si>
-    <t>27,43%</t>
+    <t>10-50.000 hab</t>
+  </si>
+  <si>
+    <t>90,94%</t>
+  </si>
+  <si>
+    <t>70,13%</t>
+  </si>
+  <si>
+    <t>97,91%</t>
+  </si>
+  <si>
+    <t>77,56%</t>
+  </si>
+  <si>
+    <t>69,54%</t>
+  </si>
+  <si>
+    <t>83,76%</t>
+  </si>
+  <si>
+    <t>87,81%</t>
+  </si>
+  <si>
+    <t>72,66%</t>
+  </si>
+  <si>
+    <t>96,8%</t>
+  </si>
+  <si>
+    <t>3,17%</t>
+  </si>
+  <si>
+    <t>0,43%</t>
+  </si>
+  <si>
+    <t>11,57%</t>
+  </si>
+  <si>
+    <t>9,98%</t>
+  </si>
+  <si>
+    <t>5,87%</t>
+  </si>
+  <si>
+    <t>15,56%</t>
+  </si>
+  <si>
+    <t>4,76%</t>
+  </si>
+  <si>
+    <t>1,14%</t>
+  </si>
+  <si>
+    <t>11,17%</t>
+  </si>
+  <si>
+    <t>5,89%</t>
+  </si>
+  <si>
+    <t>1,04%</t>
+  </si>
+  <si>
+    <t>20,43%</t>
+  </si>
+  <si>
+    <t>12,46%</t>
+  </si>
+  <si>
+    <t>7,39%</t>
+  </si>
+  <si>
+    <t>20,07%</t>
+  </si>
+  <si>
+    <t>7,43%</t>
+  </si>
+  <si>
+    <t>1,88%</t>
+  </si>
+  <si>
+    <t>17,27%</t>
+  </si>
+  <si>
+    <t>&gt;50.000 hab</t>
+  </si>
+  <si>
+    <t>74,72%</t>
+  </si>
+  <si>
+    <t>63,64%</t>
+  </si>
+  <si>
+    <t>84,61%</t>
+  </si>
+  <si>
+    <t>83,06%</t>
+  </si>
+  <si>
+    <t>73,06%</t>
+  </si>
+  <si>
+    <t>89,81%</t>
+  </si>
+  <si>
+    <t>78,96%</t>
+  </si>
+  <si>
+    <t>71,23%</t>
+  </si>
+  <si>
+    <t>85,27%</t>
+  </si>
+  <si>
+    <t>16,09%</t>
+  </si>
+  <si>
+    <t>8,1%</t>
+  </si>
+  <si>
+    <t>26,12%</t>
+  </si>
+  <si>
+    <t>7,58%</t>
+  </si>
+  <si>
+    <t>3,53%</t>
+  </si>
+  <si>
+    <t>13,97%</t>
+  </si>
+  <si>
+    <t>11,76%</t>
+  </si>
+  <si>
+    <t>7,33%</t>
+  </si>
+  <si>
+    <t>17,78%</t>
   </si>
   <si>
     <t>9,2%</t>
   </si>
   <si>
+    <t>3,71%</t>
+  </si>
+  <si>
+    <t>17,17%</t>
+  </si>
+  <si>
+    <t>9,36%</t>
+  </si>
+  <si>
     <t>4,31%</t>
   </si>
   <si>
-    <t>16,94%</t>
+    <t>19,63%</t>
+  </si>
+  <si>
+    <t>9,28%</t>
+  </si>
+  <si>
+    <t>5,23%</t>
+  </si>
+  <si>
+    <t>15,31%</t>
+  </si>
+  <si>
+    <t>Capitales</t>
+  </si>
+  <si>
+    <t>80,11%</t>
+  </si>
+  <si>
+    <t>71,15%</t>
+  </si>
+  <si>
+    <t>86,98%</t>
+  </si>
+  <si>
+    <t>71,66%</t>
+  </si>
+  <si>
+    <t>64,3%</t>
+  </si>
+  <si>
+    <t>78,49%</t>
+  </si>
+  <si>
+    <t>75,94%</t>
+  </si>
+  <si>
+    <t>70,46%</t>
+  </si>
+  <si>
+    <t>80,88%</t>
+  </si>
+  <si>
+    <t>11,26%</t>
+  </si>
+  <si>
+    <t>5,69%</t>
+  </si>
+  <si>
+    <t>18,63%</t>
+  </si>
+  <si>
+    <t>12,67%</t>
+  </si>
+  <si>
+    <t>8,2%</t>
+  </si>
+  <si>
+    <t>18,55%</t>
+  </si>
+  <si>
+    <t>11,95%</t>
+  </si>
+  <si>
+    <t>8,16%</t>
+  </si>
+  <si>
+    <t>16,39%</t>
+  </si>
+  <si>
+    <t>8,64%</t>
+  </si>
+  <si>
+    <t>4,4%</t>
+  </si>
+  <si>
+    <t>14,93%</t>
+  </si>
+  <si>
+    <t>15,67%</t>
+  </si>
+  <si>
+    <t>11,01%</t>
+  </si>
+  <si>
+    <t>21,37%</t>
+  </si>
+  <si>
+    <t>12,1%</t>
+  </si>
+  <si>
+    <t>8,52%</t>
+  </si>
+  <si>
+    <t>16,33%</t>
+  </si>
+  <si>
+    <t>84,5%</t>
+  </si>
+  <si>
+    <t>73,5%</t>
+  </si>
+  <si>
+    <t>93,71%</t>
+  </si>
+  <si>
+    <t>76,89%</t>
+  </si>
+  <si>
+    <t>72,9%</t>
+  </si>
+  <si>
+    <t>80,79%</t>
+  </si>
+  <si>
+    <t>81,68%</t>
+  </si>
+  <si>
+    <t>74,91%</t>
+  </si>
+  <si>
+    <t>90,95%</t>
+  </si>
+  <si>
+    <t>7,2%</t>
+  </si>
+  <si>
+    <t>2,38%</t>
+  </si>
+  <si>
+    <t>12,39%</t>
+  </si>
+  <si>
+    <t>10,42%</t>
+  </si>
+  <si>
+    <t>8,35%</t>
+  </si>
+  <si>
+    <t>13,88%</t>
+  </si>
+  <si>
+    <t>8,39%</t>
+  </si>
+  <si>
+    <t>3,72%</t>
   </si>
   <si>
     <t>11,75%</t>
   </si>
   <si>
-    <t>7,04%</t>
-  </si>
-  <si>
-    <t>19,46%</t>
-  </si>
-  <si>
-    <t>16,77%</t>
-  </si>
-  <si>
-    <t>8,4%</t>
-  </si>
-  <si>
-    <t>29,7%</t>
-  </si>
-  <si>
-    <t>14,17%</t>
-  </si>
-  <si>
-    <t>7,8%</t>
-  </si>
-  <si>
-    <t>24,31%</t>
-  </si>
-  <si>
-    <t>15,49%</t>
-  </si>
-  <si>
-    <t>9,58%</t>
-  </si>
-  <si>
-    <t>24,23%</t>
-  </si>
-  <si>
-    <t>10-50.000 hab</t>
-  </si>
-  <si>
-    <t>80,46%</t>
-  </si>
-  <si>
-    <t>69,39%</t>
-  </si>
-  <si>
-    <t>92,38%</t>
-  </si>
-  <si>
-    <t>77,13%</t>
-  </si>
-  <si>
-    <t>68,95%</t>
-  </si>
-  <si>
-    <t>83,6%</t>
-  </si>
-  <si>
-    <t>79,09%</t>
-  </si>
-  <si>
-    <t>72,28%</t>
-  </si>
-  <si>
-    <t>89,85%</t>
-  </si>
-  <si>
-    <t>6,84%</t>
-  </si>
-  <si>
-    <t>1,91%</t>
-  </si>
-  <si>
-    <t>12,67%</t>
-  </si>
-  <si>
-    <t>9,77%</t>
-  </si>
-  <si>
-    <t>5,81%</t>
-  </si>
-  <si>
-    <t>15,27%</t>
-  </si>
-  <si>
-    <t>8,04%</t>
-  </si>
-  <si>
-    <t>4,38%</t>
-  </si>
-  <si>
-    <t>11,96%</t>
-  </si>
-  <si>
-    <t>12,7%</t>
-  </si>
-  <si>
-    <t>4,59%</t>
-  </si>
-  <si>
-    <t>21,98%</t>
-  </si>
-  <si>
-    <t>13,11%</t>
-  </si>
-  <si>
-    <t>7,72%</t>
-  </si>
-  <si>
-    <t>21,03%</t>
-  </si>
-  <si>
-    <t>12,87%</t>
-  </si>
-  <si>
-    <t>6,5%</t>
-  </si>
-  <si>
-    <t>18,13%</t>
-  </si>
-  <si>
-    <t>&gt;50.000hab</t>
-  </si>
-  <si>
-    <t>73,84%</t>
-  </si>
-  <si>
-    <t>62,96%</t>
-  </si>
-  <si>
-    <t>83,94%</t>
-  </si>
-  <si>
-    <t>83,37%</t>
-  </si>
-  <si>
-    <t>73,63%</t>
-  </si>
-  <si>
-    <t>90,23%</t>
-  </si>
-  <si>
-    <t>78,81%</t>
-  </si>
-  <si>
-    <t>70,65%</t>
-  </si>
-  <si>
-    <t>85,06%</t>
-  </si>
-  <si>
-    <t>16,26%</t>
-  </si>
-  <si>
-    <t>8,15%</t>
-  </si>
-  <si>
-    <t>26,17%</t>
-  </si>
-  <si>
-    <t>7,56%</t>
-  </si>
-  <si>
-    <t>3,51%</t>
-  </si>
-  <si>
-    <t>14,23%</t>
-  </si>
-  <si>
-    <t>11,72%</t>
-  </si>
-  <si>
-    <t>7,27%</t>
-  </si>
-  <si>
-    <t>17,8%</t>
-  </si>
-  <si>
-    <t>9,9%</t>
-  </si>
-  <si>
-    <t>3,98%</t>
-  </si>
-  <si>
-    <t>18,11%</t>
-  </si>
-  <si>
-    <t>9,08%</t>
-  </si>
-  <si>
-    <t>4,12%</t>
-  </si>
-  <si>
-    <t>18,64%</t>
-  </si>
-  <si>
-    <t>9,47%</t>
-  </si>
-  <si>
-    <t>5,21%</t>
-  </si>
-  <si>
-    <t>15,55%</t>
-  </si>
-  <si>
-    <t>Capitales</t>
-  </si>
-  <si>
-    <t>80,65%</t>
-  </si>
-  <si>
-    <t>72,36%</t>
-  </si>
-  <si>
-    <t>87,13%</t>
-  </si>
-  <si>
-    <t>71,57%</t>
-  </si>
-  <si>
-    <t>64,14%</t>
-  </si>
-  <si>
-    <t>78,39%</t>
-  </si>
-  <si>
-    <t>76,06%</t>
-  </si>
-  <si>
-    <t>70,69%</t>
-  </si>
-  <si>
-    <t>81,16%</t>
-  </si>
-  <si>
-    <t>10,51%</t>
-  </si>
-  <si>
-    <t>5,54%</t>
-  </si>
-  <si>
-    <t>17,15%</t>
-  </si>
-  <si>
-    <t>12,78%</t>
-  </si>
-  <si>
-    <t>8,31%</t>
-  </si>
-  <si>
-    <t>18,86%</t>
-  </si>
-  <si>
-    <t>11,66%</t>
-  </si>
-  <si>
-    <t>7,93%</t>
-  </si>
-  <si>
-    <t>15,75%</t>
-  </si>
-  <si>
-    <t>8,84%</t>
-  </si>
-  <si>
-    <t>4,46%</t>
-  </si>
-  <si>
-    <t>15,58%</t>
-  </si>
-  <si>
-    <t>15,65%</t>
-  </si>
-  <si>
-    <t>11,01%</t>
-  </si>
-  <si>
-    <t>21,54%</t>
-  </si>
-  <si>
-    <t>12,29%</t>
-  </si>
-  <si>
-    <t>8,64%</t>
-  </si>
-  <si>
-    <t>16,57%</t>
-  </si>
-  <si>
-    <t>77,63%</t>
-  </si>
-  <si>
-    <t>72,52%</t>
-  </si>
-  <si>
-    <t>84,88%</t>
-  </si>
-  <si>
-    <t>76,76%</t>
-  </si>
-  <si>
-    <t>72,64%</t>
-  </si>
-  <si>
-    <t>80,68%</t>
-  </si>
-  <si>
-    <t>77,22%</t>
-  </si>
-  <si>
-    <t>73,95%</t>
-  </si>
-  <si>
-    <t>81,78%</t>
-  </si>
-  <si>
-    <t>10,23%</t>
-  </si>
-  <si>
-    <t>6,02%</t>
-  </si>
-  <si>
-    <t>13,76%</t>
-  </si>
-  <si>
-    <t>10,35%</t>
-  </si>
-  <si>
-    <t>8,27%</t>
-  </si>
-  <si>
-    <t>13,81%</t>
-  </si>
-  <si>
-    <t>10,28%</t>
-  </si>
-  <si>
-    <t>7,78%</t>
-  </si>
-  <si>
-    <t>12,46%</t>
-  </si>
-  <si>
-    <t>12,14%</t>
-  </si>
-  <si>
-    <t>7,83%</t>
-  </si>
-  <si>
-    <t>15,66%</t>
-  </si>
-  <si>
-    <t>12,9%</t>
-  </si>
-  <si>
-    <t>9,67%</t>
-  </si>
-  <si>
-    <t>16,18%</t>
-  </si>
-  <si>
-    <t>12,49%</t>
-  </si>
-  <si>
-    <t>9,74%</t>
-  </si>
-  <si>
-    <t>14,89%</t>
+    <t>8,3%</t>
+  </si>
+  <si>
+    <t>2,93%</t>
+  </si>
+  <si>
+    <t>14,43%</t>
+  </si>
+  <si>
+    <t>12,69%</t>
+  </si>
+  <si>
+    <t>9,59%</t>
+  </si>
+  <si>
+    <t>15,91%</t>
+  </si>
+  <si>
+    <t>9,92%</t>
+  </si>
+  <si>
+    <t>4,87%</t>
+  </si>
+  <si>
+    <t>13,69%</t>
   </si>
   <si>
     <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
@@ -984,8 +903,8 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{144C1FFD-F44B-4FD1-82B4-275E03A35442}">
-  <dimension ref="A1:Q28"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BD2D8F30-BDEF-4A3B-B3FA-9C28096952A5}">
+  <dimension ref="A1:Q24"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
@@ -1102,10 +1021,10 @@
         <v>10</v>
       </c>
       <c r="C4" s="7">
-        <v>13</v>
+        <v>50</v>
       </c>
       <c r="D4" s="7">
-        <v>12321</v>
+        <v>50346</v>
       </c>
       <c r="E4" s="7" t="s">
         <v>11</v>
@@ -1117,10 +1036,10 @@
         <v>13</v>
       </c>
       <c r="H4" s="7">
-        <v>10</v>
+        <v>70</v>
       </c>
       <c r="I4" s="7">
-        <v>6527</v>
+        <v>46457</v>
       </c>
       <c r="J4" s="7" t="s">
         <v>14</v>
@@ -1132,10 +1051,10 @@
         <v>16</v>
       </c>
       <c r="M4" s="7">
-        <v>23</v>
+        <v>120</v>
       </c>
       <c r="N4" s="7">
-        <v>18849</v>
+        <v>96803</v>
       </c>
       <c r="O4" s="7" t="s">
         <v>17</v>
@@ -1144,109 +1063,109 @@
         <v>18</v>
       </c>
       <c r="Q4" s="7" t="s">
-        <v>19</v>
+        <v>13</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A5" s="1"/>
       <c r="B5" s="5" t="s">
+        <v>19</v>
+      </c>
+      <c r="C5" s="7">
+        <v>7</v>
+      </c>
+      <c r="D5" s="7">
+        <v>7556</v>
+      </c>
+      <c r="E5" s="7" t="s">
         <v>20</v>
       </c>
-      <c r="C5" s="7">
-        <v>0</v>
-      </c>
-      <c r="D5" s="7">
-        <v>0</v>
-      </c>
-      <c r="E5" s="7" t="s">
+      <c r="F5" s="7" t="s">
         <v>21</v>
       </c>
-      <c r="F5" s="7" t="s">
+      <c r="G5" s="7" t="s">
         <v>22</v>
       </c>
-      <c r="G5" s="7" t="s">
+      <c r="H5" s="7">
+        <v>12</v>
+      </c>
+      <c r="I5" s="7">
+        <v>6415</v>
+      </c>
+      <c r="J5" s="7" t="s">
         <v>23</v>
       </c>
-      <c r="H5" s="7">
-        <v>3</v>
-      </c>
-      <c r="I5" s="7">
-        <v>1554</v>
-      </c>
-      <c r="J5" s="7" t="s">
+      <c r="K5" s="7" t="s">
         <v>24</v>
       </c>
-      <c r="K5" s="7" t="s">
+      <c r="L5" s="7" t="s">
         <v>25</v>
       </c>
-      <c r="L5" s="7" t="s">
+      <c r="M5" s="7">
+        <v>19</v>
+      </c>
+      <c r="N5" s="7">
+        <v>13971</v>
+      </c>
+      <c r="O5" s="7" t="s">
         <v>26</v>
       </c>
-      <c r="M5" s="7">
-        <v>3</v>
-      </c>
-      <c r="N5" s="7">
-        <v>1554</v>
-      </c>
-      <c r="O5" s="7" t="s">
+      <c r="P5" s="7" t="s">
         <v>27</v>
       </c>
-      <c r="P5" s="7" t="s">
+      <c r="Q5" s="7" t="s">
         <v>28</v>
-      </c>
-      <c r="Q5" s="7" t="s">
-        <v>29</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A6" s="1"/>
       <c r="B6" s="5" t="s">
+        <v>29</v>
+      </c>
+      <c r="C6" s="7">
+        <v>12</v>
+      </c>
+      <c r="D6" s="7">
+        <v>13530</v>
+      </c>
+      <c r="E6" s="7" t="s">
         <v>30</v>
       </c>
-      <c r="C6" s="7">
-        <v>3</v>
-      </c>
-      <c r="D6" s="7">
-        <v>4408</v>
-      </c>
-      <c r="E6" s="7" t="s">
+      <c r="F6" s="7" t="s">
         <v>31</v>
       </c>
-      <c r="F6" s="7" t="s">
+      <c r="G6" s="7" t="s">
         <v>32</v>
       </c>
-      <c r="G6" s="7" t="s">
+      <c r="H6" s="7">
+        <v>11</v>
+      </c>
+      <c r="I6" s="7">
+        <v>7095</v>
+      </c>
+      <c r="J6" s="7" t="s">
         <v>33</v>
       </c>
-      <c r="H6" s="7">
-        <v>0</v>
-      </c>
-      <c r="I6" s="7">
-        <v>0</v>
-      </c>
-      <c r="J6" s="7" t="s">
-        <v>21</v>
-      </c>
       <c r="K6" s="7" t="s">
-        <v>22</v>
+        <v>34</v>
       </c>
       <c r="L6" s="7" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="M6" s="7">
-        <v>3</v>
+        <v>23</v>
       </c>
       <c r="N6" s="7">
-        <v>4408</v>
+        <v>20625</v>
       </c>
       <c r="O6" s="7" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="P6" s="7" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="Q6" s="7" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
     </row>
     <row r="7" spans="1:17" x14ac:dyDescent="0.3">
@@ -1255,204 +1174,204 @@
         <v>3</v>
       </c>
       <c r="C7" s="7">
-        <v>16</v>
+        <v>69</v>
       </c>
       <c r="D7" s="7">
-        <v>16729</v>
+        <v>71432</v>
       </c>
       <c r="E7" s="7" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="F7" s="7" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="G7" s="7" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="H7" s="7">
-        <v>13</v>
+        <v>93</v>
       </c>
       <c r="I7" s="7">
-        <v>8081</v>
+        <v>59967</v>
       </c>
       <c r="J7" s="7" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="K7" s="7" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="L7" s="7" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="M7" s="7">
-        <v>29</v>
+        <v>162</v>
       </c>
       <c r="N7" s="7">
-        <v>24810</v>
+        <v>131399</v>
       </c>
       <c r="O7" s="7" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="P7" s="7" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="Q7" s="7" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A8" s="1" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="B8" s="5" t="s">
         <v>10</v>
       </c>
       <c r="C8" s="7">
-        <v>37</v>
+        <v>79</v>
       </c>
       <c r="D8" s="7">
-        <v>39078</v>
+        <v>329667</v>
       </c>
       <c r="E8" s="7" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="F8" s="7" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="H8" s="7">
-        <v>60</v>
+        <v>125</v>
       </c>
       <c r="I8" s="7">
-        <v>42254</v>
+        <v>85773</v>
       </c>
       <c r="J8" s="7" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="K8" s="7" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="L8" s="7" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="M8" s="7">
-        <v>97</v>
+        <v>204</v>
       </c>
       <c r="N8" s="7">
-        <v>81332</v>
+        <v>415441</v>
       </c>
       <c r="O8" s="7" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="P8" s="7" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A9" s="1"/>
       <c r="B9" s="5" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="C9" s="7">
-        <v>7</v>
+        <v>12</v>
       </c>
       <c r="D9" s="7">
-        <v>8067</v>
+        <v>11484</v>
       </c>
       <c r="E9" s="7" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="F9" s="7" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="G9" s="7" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="H9" s="7">
-        <v>9</v>
+        <v>17</v>
       </c>
       <c r="I9" s="7">
-        <v>5073</v>
+        <v>11036</v>
       </c>
       <c r="J9" s="7" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="K9" s="7" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="L9" s="7" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="M9" s="7">
-        <v>16</v>
+        <v>29</v>
       </c>
       <c r="N9" s="7">
-        <v>13139</v>
+        <v>22520</v>
       </c>
       <c r="O9" s="7" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="P9" s="7" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="Q9" s="7" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
     </row>
     <row r="10" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A10" s="1"/>
       <c r="B10" s="5" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="C10" s="7">
-        <v>9</v>
+        <v>19</v>
       </c>
       <c r="D10" s="7">
-        <v>9501</v>
+        <v>21350</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="H10" s="7">
-        <v>11</v>
+        <v>16</v>
       </c>
       <c r="I10" s="7">
-        <v>7816</v>
+        <v>13785</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="M10" s="7">
-        <v>20</v>
+        <v>35</v>
       </c>
       <c r="N10" s="7">
-        <v>17317</v>
+        <v>35135</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -1461,204 +1380,204 @@
         <v>3</v>
       </c>
       <c r="C11" s="7">
-        <v>53</v>
+        <v>110</v>
       </c>
       <c r="D11" s="7">
-        <v>56645</v>
+        <v>362501</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="H11" s="7">
-        <v>80</v>
+        <v>158</v>
       </c>
       <c r="I11" s="7">
-        <v>55143</v>
+        <v>110595</v>
       </c>
       <c r="J11" s="7" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="M11" s="7">
-        <v>133</v>
+        <v>268</v>
       </c>
       <c r="N11" s="7">
-        <v>111788</v>
+        <v>473096</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A12" s="1" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="B12" s="5" t="s">
         <v>10</v>
       </c>
       <c r="C12" s="7">
-        <v>79</v>
+        <v>50</v>
       </c>
       <c r="D12" s="7">
-        <v>139983</v>
+        <v>60724</v>
       </c>
       <c r="E12" s="7" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="F12" s="7" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="G12" s="7" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="H12" s="7">
-        <v>125</v>
+        <v>97</v>
       </c>
       <c r="I12" s="7">
-        <v>93503</v>
+        <v>69825</v>
       </c>
       <c r="J12" s="7" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="K12" s="7" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="L12" s="7" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="M12" s="7">
-        <v>204</v>
+        <v>147</v>
       </c>
       <c r="N12" s="7">
-        <v>233486</v>
+        <v>130549</v>
       </c>
       <c r="O12" s="7" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="P12" s="7" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="Q12" s="7" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A13" s="1"/>
       <c r="B13" s="5" t="s">
+        <v>19</v>
+      </c>
+      <c r="C13" s="7">
+        <v>11</v>
+      </c>
+      <c r="D13" s="7">
+        <v>13074</v>
+      </c>
+      <c r="E13" s="7" t="s">
+        <v>78</v>
+      </c>
+      <c r="F13" s="7" t="s">
+        <v>79</v>
+      </c>
+      <c r="G13" s="7" t="s">
+        <v>80</v>
+      </c>
+      <c r="H13" s="7">
+        <v>9</v>
+      </c>
+      <c r="I13" s="7">
+        <v>6374</v>
+      </c>
+      <c r="J13" s="7" t="s">
+        <v>81</v>
+      </c>
+      <c r="K13" s="7" t="s">
+        <v>82</v>
+      </c>
+      <c r="L13" s="7" t="s">
+        <v>83</v>
+      </c>
+      <c r="M13" s="7">
         <v>20</v>
       </c>
-      <c r="C13" s="7">
-        <v>12</v>
-      </c>
-      <c r="D13" s="7">
-        <v>11895</v>
-      </c>
-      <c r="E13" s="7" t="s">
-        <v>77</v>
-      </c>
-      <c r="F13" s="7" t="s">
-        <v>78</v>
-      </c>
-      <c r="G13" s="7" t="s">
-        <v>79</v>
-      </c>
-      <c r="H13" s="7">
-        <v>17</v>
-      </c>
-      <c r="I13" s="7">
-        <v>11844</v>
-      </c>
-      <c r="J13" s="7" t="s">
-        <v>80</v>
-      </c>
-      <c r="K13" s="7" t="s">
-        <v>81</v>
-      </c>
-      <c r="L13" s="7" t="s">
-        <v>82</v>
-      </c>
-      <c r="M13" s="7">
-        <v>29</v>
-      </c>
       <c r="N13" s="7">
-        <v>23739</v>
+        <v>19449</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A14" s="1"/>
       <c r="B14" s="5" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="C14" s="7">
-        <v>19</v>
+        <v>8</v>
       </c>
       <c r="D14" s="7">
-        <v>22096</v>
+        <v>7475</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="H14" s="7">
+        <v>8</v>
+      </c>
+      <c r="I14" s="7">
+        <v>7864</v>
+      </c>
+      <c r="J14" s="7" t="s">
+        <v>90</v>
+      </c>
+      <c r="K14" s="7" t="s">
+        <v>91</v>
+      </c>
+      <c r="L14" s="7" t="s">
+        <v>92</v>
+      </c>
+      <c r="M14" s="7">
         <v>16</v>
       </c>
-      <c r="I14" s="7">
-        <v>15888</v>
-      </c>
-      <c r="J14" s="7" t="s">
-        <v>89</v>
-      </c>
-      <c r="K14" s="7" t="s">
-        <v>90</v>
-      </c>
-      <c r="L14" s="7" t="s">
-        <v>91</v>
-      </c>
-      <c r="M14" s="7">
-        <v>35</v>
-      </c>
       <c r="N14" s="7">
-        <v>37984</v>
+        <v>15339</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -1667,204 +1586,204 @@
         <v>3</v>
       </c>
       <c r="C15" s="7">
-        <v>110</v>
+        <v>69</v>
       </c>
       <c r="D15" s="7">
-        <v>173974</v>
+        <v>81273</v>
       </c>
       <c r="E15" s="7" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="F15" s="7" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="G15" s="7" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="H15" s="7">
-        <v>158</v>
+        <v>114</v>
       </c>
       <c r="I15" s="7">
-        <v>121235</v>
+        <v>84064</v>
       </c>
       <c r="J15" s="7" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="K15" s="7" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="L15" s="7" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="M15" s="7">
-        <v>268</v>
+        <v>183</v>
       </c>
       <c r="N15" s="7">
-        <v>295209</v>
+        <v>165337</v>
       </c>
       <c r="O15" s="7" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="P15" s="7" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="Q15" s="7" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A16" s="1" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="B16" s="5" t="s">
         <v>10</v>
       </c>
       <c r="C16" s="7">
-        <v>50</v>
+        <v>96</v>
       </c>
       <c r="D16" s="7">
-        <v>61021</v>
+        <v>98792</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="F16" s="7" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="H16" s="7">
-        <v>97</v>
+        <v>121</v>
       </c>
       <c r="I16" s="7">
-        <v>75306</v>
+        <v>86030</v>
       </c>
       <c r="J16" s="7" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="K16" s="7" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="M16" s="7">
-        <v>147</v>
+        <v>217</v>
       </c>
       <c r="N16" s="7">
-        <v>136326</v>
+        <v>184822</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A17" s="1"/>
       <c r="B17" s="5" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="C17" s="7">
-        <v>11</v>
+        <v>14</v>
       </c>
       <c r="D17" s="7">
-        <v>13441</v>
+        <v>13881</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="H17" s="7">
-        <v>9</v>
+        <v>25</v>
       </c>
       <c r="I17" s="7">
-        <v>6828</v>
+        <v>15213</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="M17" s="7">
-        <v>20</v>
+        <v>39</v>
       </c>
       <c r="N17" s="7">
-        <v>20269</v>
+        <v>29094</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>113</v>
+        <v>114</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A18" s="1"/>
       <c r="B18" s="5" t="s">
+        <v>29</v>
+      </c>
+      <c r="C18" s="7">
+        <v>11</v>
+      </c>
+      <c r="D18" s="7">
+        <v>10650</v>
+      </c>
+      <c r="E18" s="7" t="s">
+        <v>115</v>
+      </c>
+      <c r="F18" s="7" t="s">
+        <v>116</v>
+      </c>
+      <c r="G18" s="7" t="s">
+        <v>117</v>
+      </c>
+      <c r="H18" s="7">
         <v>30</v>
       </c>
-      <c r="C18" s="7">
-        <v>8</v>
-      </c>
-      <c r="D18" s="7">
-        <v>8183</v>
-      </c>
-      <c r="E18" s="7" t="s">
-        <v>114</v>
-      </c>
-      <c r="F18" s="7" t="s">
-        <v>115</v>
-      </c>
-      <c r="G18" s="7" t="s">
-        <v>116</v>
-      </c>
-      <c r="H18" s="7">
-        <v>8</v>
-      </c>
       <c r="I18" s="7">
-        <v>8198</v>
+        <v>18806</v>
       </c>
       <c r="J18" s="7" t="s">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="K18" s="7" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="L18" s="7" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="M18" s="7">
-        <v>16</v>
+        <v>41</v>
       </c>
       <c r="N18" s="7">
-        <v>16381</v>
+        <v>29456</v>
       </c>
       <c r="O18" s="7" t="s">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="P18" s="7" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="Q18" s="7" t="s">
-        <v>122</v>
+        <v>123</v>
       </c>
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
@@ -1873,63 +1792,63 @@
         <v>3</v>
       </c>
       <c r="C19" s="7">
-        <v>69</v>
+        <v>121</v>
       </c>
       <c r="D19" s="7">
-        <v>82645</v>
+        <v>123323</v>
       </c>
       <c r="E19" s="7" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="F19" s="7" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="G19" s="7" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="H19" s="7">
-        <v>114</v>
+        <v>176</v>
       </c>
       <c r="I19" s="7">
-        <v>90332</v>
+        <v>120049</v>
       </c>
       <c r="J19" s="7" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="K19" s="7" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="L19" s="7" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="M19" s="7">
-        <v>183</v>
+        <v>297</v>
       </c>
       <c r="N19" s="7">
-        <v>172976</v>
+        <v>243372</v>
       </c>
       <c r="O19" s="7" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="P19" s="7" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="Q19" s="7" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A20" s="1" t="s">
-        <v>123</v>
+        <v>3</v>
       </c>
       <c r="B20" s="5" t="s">
         <v>10</v>
       </c>
       <c r="C20" s="7">
-        <v>96</v>
+        <v>275</v>
       </c>
       <c r="D20" s="7">
-        <v>101243</v>
+        <v>539529</v>
       </c>
       <c r="E20" s="7" t="s">
         <v>124</v>
@@ -1941,10 +1860,10 @@
         <v>126</v>
       </c>
       <c r="H20" s="7">
-        <v>121</v>
+        <v>413</v>
       </c>
       <c r="I20" s="7">
-        <v>92055</v>
+        <v>288086</v>
       </c>
       <c r="J20" s="7" t="s">
         <v>127</v>
@@ -1956,10 +1875,10 @@
         <v>129</v>
       </c>
       <c r="M20" s="7">
-        <v>217</v>
+        <v>688</v>
       </c>
       <c r="N20" s="7">
-        <v>193300</v>
+        <v>827615</v>
       </c>
       <c r="O20" s="7" t="s">
         <v>130</v>
@@ -1974,13 +1893,13 @@
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A21" s="1"/>
       <c r="B21" s="5" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="C21" s="7">
-        <v>14</v>
+        <v>44</v>
       </c>
       <c r="D21" s="7">
-        <v>13193</v>
+        <v>45996</v>
       </c>
       <c r="E21" s="7" t="s">
         <v>133</v>
@@ -1992,10 +1911,10 @@
         <v>135</v>
       </c>
       <c r="H21" s="7">
-        <v>25</v>
+        <v>63</v>
       </c>
       <c r="I21" s="7">
-        <v>16436</v>
+        <v>39038</v>
       </c>
       <c r="J21" s="7" t="s">
         <v>136</v>
@@ -2007,10 +1926,10 @@
         <v>138</v>
       </c>
       <c r="M21" s="7">
-        <v>39</v>
+        <v>107</v>
       </c>
       <c r="N21" s="7">
-        <v>29629</v>
+        <v>85034</v>
       </c>
       <c r="O21" s="7" t="s">
         <v>139</v>
@@ -2025,13 +1944,13 @@
     <row r="22" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A22" s="1"/>
       <c r="B22" s="5" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="C22" s="7">
-        <v>11</v>
+        <v>50</v>
       </c>
       <c r="D22" s="7">
-        <v>11097</v>
+        <v>53004</v>
       </c>
       <c r="E22" s="7" t="s">
         <v>142</v>
@@ -2043,10 +1962,10 @@
         <v>144</v>
       </c>
       <c r="H22" s="7">
-        <v>30</v>
+        <v>65</v>
       </c>
       <c r="I22" s="7">
-        <v>20131</v>
+        <v>47551</v>
       </c>
       <c r="J22" s="7" t="s">
         <v>145</v>
@@ -2058,10 +1977,10 @@
         <v>147</v>
       </c>
       <c r="M22" s="7">
-        <v>41</v>
+        <v>115</v>
       </c>
       <c r="N22" s="7">
-        <v>31228</v>
+        <v>100556</v>
       </c>
       <c r="O22" s="7" t="s">
         <v>148</v>
@@ -2079,268 +1998,61 @@
         <v>3</v>
       </c>
       <c r="C23" s="7">
-        <v>121</v>
+        <v>369</v>
       </c>
       <c r="D23" s="7">
-        <v>125533</v>
+        <v>638529</v>
       </c>
       <c r="E23" s="7" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="F23" s="7" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="G23" s="7" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="H23" s="7">
-        <v>176</v>
+        <v>541</v>
       </c>
       <c r="I23" s="7">
-        <v>128622</v>
+        <v>374675</v>
       </c>
       <c r="J23" s="7" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="K23" s="7" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="L23" s="7" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="M23" s="7">
-        <v>297</v>
+        <v>910</v>
       </c>
       <c r="N23" s="7">
-        <v>254156</v>
+        <v>1013204</v>
       </c>
       <c r="O23" s="7" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="P23" s="7" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="Q23" s="7" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A24" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="B24" s="5" t="s">
-        <v>10</v>
-      </c>
-      <c r="C24" s="7">
-        <v>275</v>
-      </c>
-      <c r="D24" s="7">
-        <v>353647</v>
-      </c>
-      <c r="E24" s="7" t="s">
+      <c r="A24" t="s">
         <v>151</v>
       </c>
-      <c r="F24" s="7" t="s">
-        <v>152</v>
-      </c>
-      <c r="G24" s="7" t="s">
-        <v>153</v>
-      </c>
-      <c r="H24" s="7">
-        <v>413</v>
-      </c>
-      <c r="I24" s="7">
-        <v>309646</v>
-      </c>
-      <c r="J24" s="7" t="s">
-        <v>154</v>
-      </c>
-      <c r="K24" s="7" t="s">
-        <v>155</v>
-      </c>
-      <c r="L24" s="7" t="s">
-        <v>156</v>
-      </c>
-      <c r="M24" s="7">
-        <v>688</v>
-      </c>
-      <c r="N24" s="7">
-        <v>663293</v>
-      </c>
-      <c r="O24" s="7" t="s">
-        <v>157</v>
-      </c>
-      <c r="P24" s="7" t="s">
-        <v>158</v>
-      </c>
-      <c r="Q24" s="7" t="s">
-        <v>159</v>
-      </c>
-    </row>
-    <row r="25" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A25" s="1"/>
-      <c r="B25" s="5" t="s">
-        <v>20</v>
-      </c>
-      <c r="C25" s="7">
-        <v>44</v>
-      </c>
-      <c r="D25" s="7">
-        <v>46596</v>
-      </c>
-      <c r="E25" s="7" t="s">
-        <v>160</v>
-      </c>
-      <c r="F25" s="7" t="s">
-        <v>161</v>
-      </c>
-      <c r="G25" s="7" t="s">
-        <v>162</v>
-      </c>
-      <c r="H25" s="7">
-        <v>63</v>
-      </c>
-      <c r="I25" s="7">
-        <v>41734</v>
-      </c>
-      <c r="J25" s="7" t="s">
-        <v>163</v>
-      </c>
-      <c r="K25" s="7" t="s">
-        <v>164</v>
-      </c>
-      <c r="L25" s="7" t="s">
-        <v>165</v>
-      </c>
-      <c r="M25" s="7">
-        <v>107</v>
-      </c>
-      <c r="N25" s="7">
-        <v>88330</v>
-      </c>
-      <c r="O25" s="7" t="s">
-        <v>166</v>
-      </c>
-      <c r="P25" s="7" t="s">
-        <v>167</v>
-      </c>
-      <c r="Q25" s="7" t="s">
-        <v>168</v>
-      </c>
-    </row>
-    <row r="26" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A26" s="1"/>
-      <c r="B26" s="5" t="s">
-        <v>30</v>
-      </c>
-      <c r="C26" s="7">
-        <v>50</v>
-      </c>
-      <c r="D26" s="7">
-        <v>55284</v>
-      </c>
-      <c r="E26" s="7" t="s">
-        <v>169</v>
-      </c>
-      <c r="F26" s="7" t="s">
-        <v>170</v>
-      </c>
-      <c r="G26" s="7" t="s">
-        <v>171</v>
-      </c>
-      <c r="H26" s="7">
-        <v>65</v>
-      </c>
-      <c r="I26" s="7">
-        <v>52033</v>
-      </c>
-      <c r="J26" s="7" t="s">
-        <v>172</v>
-      </c>
-      <c r="K26" s="7" t="s">
-        <v>173</v>
-      </c>
-      <c r="L26" s="7" t="s">
-        <v>174</v>
-      </c>
-      <c r="M26" s="7">
-        <v>115</v>
-      </c>
-      <c r="N26" s="7">
-        <v>107317</v>
-      </c>
-      <c r="O26" s="7" t="s">
-        <v>175</v>
-      </c>
-      <c r="P26" s="7" t="s">
-        <v>176</v>
-      </c>
-      <c r="Q26" s="7" t="s">
-        <v>177</v>
-      </c>
-    </row>
-    <row r="27" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A27" s="1"/>
-      <c r="B27" s="5" t="s">
-        <v>3</v>
-      </c>
-      <c r="C27" s="7">
-        <v>369</v>
-      </c>
-      <c r="D27" s="7">
-        <v>455526</v>
-      </c>
-      <c r="E27" s="7" t="s">
-        <v>38</v>
-      </c>
-      <c r="F27" s="7" t="s">
-        <v>38</v>
-      </c>
-      <c r="G27" s="7" t="s">
-        <v>38</v>
-      </c>
-      <c r="H27" s="7">
-        <v>541</v>
-      </c>
-      <c r="I27" s="7">
-        <v>403413</v>
-      </c>
-      <c r="J27" s="7" t="s">
-        <v>38</v>
-      </c>
-      <c r="K27" s="7" t="s">
-        <v>38</v>
-      </c>
-      <c r="L27" s="7" t="s">
-        <v>38</v>
-      </c>
-      <c r="M27" s="7">
-        <v>910</v>
-      </c>
-      <c r="N27" s="7">
-        <v>858939</v>
-      </c>
-      <c r="O27" s="7" t="s">
-        <v>38</v>
-      </c>
-      <c r="P27" s="7" t="s">
-        <v>38</v>
-      </c>
-      <c r="Q27" s="7" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="28" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A28" t="s">
-        <v>178</v>
-      </c>
     </row>
   </sheetData>
-  <mergeCells count="10">
+  <mergeCells count="9">
     <mergeCell ref="A12:A15"/>
     <mergeCell ref="A16:A19"/>
     <mergeCell ref="A20:A23"/>
-    <mergeCell ref="A24:A27"/>
     <mergeCell ref="A1:B2"/>
     <mergeCell ref="C1:G1"/>
     <mergeCell ref="H1:L1"/>
